--- a/Mesorregiao_com_populacao.xlsx
+++ b/Mesorregiao_com_populacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="863">
   <si>
     <t>Municípios</t>
   </si>
@@ -2590,19 +2590,16 @@
     <t>Wenceslau Braz - MG</t>
   </si>
   <si>
-    <t>Pequeno II</t>
-  </si>
-  <si>
-    <t>Médio I</t>
-  </si>
-  <si>
-    <t>Pequeno I</t>
-  </si>
-  <si>
-    <t>Médio II</t>
-  </si>
-  <si>
-    <t>Grande</t>
+    <t>Pequeno Porte I</t>
+  </si>
+  <si>
+    <t>Pequeno Porte II</t>
+  </si>
+  <si>
+    <t>Médio Porte</t>
+  </si>
+  <si>
+    <t>Grande Porte</t>
   </si>
   <si>
     <t>Metrópole</t>
@@ -3051,7 +3048,7 @@
         <v>3995</v>
       </c>
       <c r="E5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3102,7 +3099,7 @@
         <v>1986</v>
       </c>
       <c r="E8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3119,7 +3116,7 @@
         <v>4557</v>
       </c>
       <c r="E9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3204,7 +3201,7 @@
         <v>2657</v>
       </c>
       <c r="E14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3221,7 +3218,7 @@
         <v>3015</v>
       </c>
       <c r="E15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3255,7 +3252,7 @@
         <v>80973</v>
       </c>
       <c r="E17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3391,7 +3388,7 @@
         <v>3783</v>
       </c>
       <c r="E25" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3425,7 +3422,7 @@
         <v>3605</v>
       </c>
       <c r="E27" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3442,7 +3439,7 @@
         <v>4643</v>
       </c>
       <c r="E28" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3561,7 +3558,7 @@
         <v>1577</v>
       </c>
       <c r="E35" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3578,7 +3575,7 @@
         <v>2360</v>
       </c>
       <c r="E36" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3595,7 +3592,7 @@
         <v>2056</v>
       </c>
       <c r="E37" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3629,7 +3626,7 @@
         <v>118361</v>
       </c>
       <c r="E39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3646,7 +3643,7 @@
         <v>2779</v>
       </c>
       <c r="E40" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3697,7 +3694,7 @@
         <v>2836</v>
       </c>
       <c r="E43" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3731,7 +3728,7 @@
         <v>108403</v>
       </c>
       <c r="E45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3799,7 +3796,7 @@
         <v>2681</v>
       </c>
       <c r="E49" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3884,7 +3881,7 @@
         <v>4833</v>
       </c>
       <c r="E54" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3952,7 +3949,7 @@
         <v>4738</v>
       </c>
       <c r="E58" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4020,7 +4017,7 @@
         <v>139061</v>
       </c>
       <c r="E62" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4037,7 +4034,7 @@
         <v>4905</v>
       </c>
       <c r="E63" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4088,7 +4085,7 @@
         <v>3422</v>
       </c>
       <c r="E66" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4105,7 +4102,7 @@
         <v>2530701</v>
       </c>
       <c r="E67" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4173,7 +4170,7 @@
         <v>4609</v>
       </c>
       <c r="E71" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4190,7 +4187,7 @@
         <v>4792</v>
       </c>
       <c r="E72" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4207,7 +4204,7 @@
         <v>450024</v>
       </c>
       <c r="E73" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4224,7 +4221,7 @@
         <v>3282</v>
       </c>
       <c r="E74" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4258,7 +4255,7 @@
         <v>2482</v>
       </c>
       <c r="E76" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4309,7 +4306,7 @@
         <v>50521</v>
       </c>
       <c r="E79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4326,7 +4323,7 @@
         <v>51436</v>
       </c>
       <c r="E80" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4360,7 +4357,7 @@
         <v>4270</v>
       </c>
       <c r="E82" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4581,7 +4578,7 @@
         <v>4255</v>
       </c>
       <c r="E95" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4598,7 +4595,7 @@
         <v>4737</v>
       </c>
       <c r="E96" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4683,7 +4680,7 @@
         <v>3984</v>
       </c>
       <c r="E101" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4768,7 +4765,7 @@
         <v>3580</v>
       </c>
       <c r="E106" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4802,7 +4799,7 @@
         <v>2720</v>
       </c>
       <c r="E108" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4870,7 +4867,7 @@
         <v>3961</v>
       </c>
       <c r="E112" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4904,7 +4901,7 @@
         <v>2839</v>
       </c>
       <c r="E114" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4972,7 +4969,7 @@
         <v>3739</v>
       </c>
       <c r="E118" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5040,7 +5037,7 @@
         <v>3830</v>
       </c>
       <c r="E122" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5057,7 +5054,7 @@
         <v>54338</v>
       </c>
       <c r="E123" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5142,7 +5139,7 @@
         <v>4533</v>
       </c>
       <c r="E128" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5210,7 +5207,7 @@
         <v>4575</v>
       </c>
       <c r="E132" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5244,7 +5241,7 @@
         <v>4616</v>
       </c>
       <c r="E134" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5414,7 +5411,7 @@
         <v>3150</v>
       </c>
       <c r="E144" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5465,7 +5462,7 @@
         <v>93124</v>
       </c>
       <c r="E147" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5533,7 +5530,7 @@
         <v>2660</v>
       </c>
       <c r="E151" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5686,7 +5683,7 @@
         <v>4052</v>
       </c>
       <c r="E160" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5703,7 +5700,7 @@
         <v>3614</v>
       </c>
       <c r="E161" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5720,7 +5717,7 @@
         <v>4445</v>
       </c>
       <c r="E162" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5737,7 +5734,7 @@
         <v>2251</v>
       </c>
       <c r="E163" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5754,7 +5751,7 @@
         <v>3108</v>
       </c>
       <c r="E164" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5788,7 +5785,7 @@
         <v>3939</v>
       </c>
       <c r="E166" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5805,7 +5802,7 @@
         <v>75942</v>
       </c>
       <c r="E167" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5839,7 +5836,7 @@
         <v>3665</v>
       </c>
       <c r="E169" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5873,7 +5870,7 @@
         <v>4944</v>
       </c>
       <c r="E171" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5907,7 +5904,7 @@
         <v>1150</v>
       </c>
       <c r="E173" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5958,7 +5955,7 @@
         <v>3216</v>
       </c>
       <c r="E176" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6026,7 +6023,7 @@
         <v>2657</v>
       </c>
       <c r="E180" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6060,7 +6057,7 @@
         <v>4873</v>
       </c>
       <c r="E182" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6145,7 +6142,7 @@
         <v>3128</v>
       </c>
       <c r="E187" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6196,7 +6193,7 @@
         <v>2814</v>
       </c>
       <c r="E190" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6230,7 +6227,7 @@
         <v>4581</v>
       </c>
       <c r="E192" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6366,7 +6363,7 @@
         <v>55836</v>
       </c>
       <c r="E200" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6417,7 +6414,7 @@
         <v>130584</v>
       </c>
       <c r="E203" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6451,7 +6448,7 @@
         <v>1786</v>
       </c>
       <c r="E205" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6468,7 +6465,7 @@
         <v>673849</v>
       </c>
       <c r="E206" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6536,7 +6533,7 @@
         <v>3546</v>
       </c>
       <c r="E210" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6604,7 +6601,7 @@
         <v>110709</v>
       </c>
       <c r="E214" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6638,7 +6635,7 @@
         <v>3095</v>
       </c>
       <c r="E216" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6655,7 +6652,7 @@
         <v>3448</v>
       </c>
       <c r="E217" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6672,7 +6669,7 @@
         <v>3168</v>
       </c>
       <c r="E218" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6689,7 +6686,7 @@
         <v>3685</v>
       </c>
       <c r="E219" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6723,7 +6720,7 @@
         <v>2688</v>
       </c>
       <c r="E221" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6740,7 +6737,7 @@
         <v>4436</v>
       </c>
       <c r="E222" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6859,7 +6856,7 @@
         <v>3651</v>
       </c>
       <c r="E229" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6927,7 +6924,7 @@
         <v>81085</v>
       </c>
       <c r="E233" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7046,7 +7043,7 @@
         <v>2867</v>
       </c>
       <c r="E240" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7080,7 +7077,7 @@
         <v>3779</v>
       </c>
       <c r="E242" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7114,7 +7111,7 @@
         <v>3430</v>
       </c>
       <c r="E244" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7148,7 +7145,7 @@
         <v>4969</v>
       </c>
       <c r="E246" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7182,7 +7179,7 @@
         <v>242505</v>
       </c>
       <c r="E248" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7250,7 +7247,7 @@
         <v>3635</v>
       </c>
       <c r="E252" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7284,7 +7281,7 @@
         <v>4436</v>
       </c>
       <c r="E254" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7318,7 +7315,7 @@
         <v>2992</v>
       </c>
       <c r="E256" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7403,7 +7400,7 @@
         <v>4202</v>
       </c>
       <c r="E261" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7420,7 +7417,7 @@
         <v>1539</v>
       </c>
       <c r="E262" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7437,7 +7434,7 @@
         <v>1915</v>
       </c>
       <c r="E263" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7573,7 +7570,7 @@
         <v>72512</v>
       </c>
       <c r="E271" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7624,7 +7621,7 @@
         <v>4728</v>
       </c>
       <c r="E274" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7658,7 +7655,7 @@
         <v>2308</v>
       </c>
       <c r="E276" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7675,7 +7672,7 @@
         <v>3483</v>
       </c>
       <c r="E277" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7726,7 +7723,7 @@
         <v>3932</v>
       </c>
       <c r="E280" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7760,7 +7757,7 @@
         <v>2374</v>
       </c>
       <c r="E282" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7777,7 +7774,7 @@
         <v>3202</v>
       </c>
       <c r="E283" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7794,7 +7791,7 @@
         <v>4656</v>
       </c>
       <c r="E284" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7811,7 +7808,7 @@
         <v>3178</v>
       </c>
       <c r="E285" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7862,7 +7859,7 @@
         <v>3500</v>
       </c>
       <c r="E288" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7930,7 +7927,7 @@
         <v>67956</v>
       </c>
       <c r="E292" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7964,7 +7961,7 @@
         <v>4460</v>
       </c>
       <c r="E294" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7981,7 +7978,7 @@
         <v>2986</v>
       </c>
       <c r="E295" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8100,7 +8097,7 @@
         <v>3496</v>
       </c>
       <c r="E302" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8134,7 +8131,7 @@
         <v>4542</v>
       </c>
       <c r="E304" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8168,7 +8165,7 @@
         <v>60508</v>
       </c>
       <c r="E306" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8185,7 +8182,7 @@
         <v>4434</v>
       </c>
       <c r="E307" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8236,7 +8233,7 @@
         <v>3177</v>
       </c>
       <c r="E310" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8253,7 +8250,7 @@
         <v>3402</v>
       </c>
       <c r="E311" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8270,7 +8267,7 @@
         <v>4014</v>
       </c>
       <c r="E312" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8287,7 +8284,7 @@
         <v>4360</v>
       </c>
       <c r="E313" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8338,7 +8335,7 @@
         <v>282164</v>
       </c>
       <c r="E316" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8372,7 +8369,7 @@
         <v>1386</v>
       </c>
       <c r="E318" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8491,7 +8488,7 @@
         <v>3755</v>
       </c>
       <c r="E325" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8525,7 +8522,7 @@
         <v>52234</v>
       </c>
       <c r="E327" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8644,7 +8641,7 @@
         <v>4999</v>
       </c>
       <c r="E334" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8729,7 +8726,7 @@
         <v>184030</v>
       </c>
       <c r="E339" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8746,7 +8743,7 @@
         <v>3497</v>
       </c>
       <c r="E340" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8763,7 +8760,7 @@
         <v>3003</v>
       </c>
       <c r="E341" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8950,7 +8947,7 @@
         <v>2785</v>
       </c>
       <c r="E352" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9052,7 +9049,7 @@
         <v>267333</v>
       </c>
       <c r="E358" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9069,7 +9066,7 @@
         <v>4229</v>
       </c>
       <c r="E359" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9120,7 +9117,7 @@
         <v>121717</v>
       </c>
       <c r="E362" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9154,7 +9151,7 @@
         <v>52996</v>
       </c>
       <c r="E364" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9239,7 +9236,7 @@
         <v>97782</v>
       </c>
       <c r="E369" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9273,7 +9270,7 @@
         <v>4395</v>
       </c>
       <c r="E371" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9307,7 +9304,7 @@
         <v>2032</v>
       </c>
       <c r="E373" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9494,7 +9491,7 @@
         <v>94455</v>
       </c>
       <c r="E384" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9562,7 +9559,7 @@
         <v>105818</v>
       </c>
       <c r="E388" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9613,7 +9610,7 @@
         <v>3749</v>
       </c>
       <c r="E391" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9698,7 +9695,7 @@
         <v>3151</v>
       </c>
       <c r="E396" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9749,7 +9746,7 @@
         <v>72374</v>
       </c>
       <c r="E399" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9766,7 +9763,7 @@
         <v>67958</v>
       </c>
       <c r="E400" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9783,7 +9780,7 @@
         <v>4418</v>
       </c>
       <c r="E401" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9817,7 +9814,7 @@
         <v>4795</v>
       </c>
       <c r="E403" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9919,7 +9916,7 @@
         <v>4774</v>
       </c>
       <c r="E409" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -9953,7 +9950,7 @@
         <v>4382</v>
       </c>
       <c r="E411" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -9970,7 +9967,7 @@
         <v>80903</v>
       </c>
       <c r="E412" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10004,7 +10001,7 @@
         <v>4757</v>
       </c>
       <c r="E414" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10038,7 +10035,7 @@
         <v>4474</v>
       </c>
       <c r="E416" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10072,7 +10069,7 @@
         <v>4911</v>
       </c>
       <c r="E418" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10123,7 +10120,7 @@
         <v>577532</v>
       </c>
       <c r="E421" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10140,7 +10137,7 @@
         <v>4359</v>
       </c>
       <c r="E422" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10225,7 +10222,7 @@
         <v>53236</v>
       </c>
       <c r="E427" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10242,7 +10239,7 @@
         <v>4062</v>
       </c>
       <c r="E428" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10310,7 +10307,7 @@
         <v>66744</v>
       </c>
       <c r="E432" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10361,7 +10358,7 @@
         <v>3366</v>
       </c>
       <c r="E435" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10412,7 +10409,7 @@
         <v>105756</v>
       </c>
       <c r="E438" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10429,7 +10426,7 @@
         <v>3222</v>
       </c>
       <c r="E439" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10446,7 +10443,7 @@
         <v>4923</v>
       </c>
       <c r="E440" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10463,7 +10460,7 @@
         <v>52690</v>
       </c>
       <c r="E441" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10480,7 +10477,7 @@
         <v>4994</v>
       </c>
       <c r="E442" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10718,7 +10715,7 @@
         <v>92074</v>
       </c>
       <c r="E456" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10820,7 +10817,7 @@
         <v>61830</v>
       </c>
       <c r="E462" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10837,7 +10834,7 @@
         <v>4079</v>
       </c>
       <c r="E463" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -10871,7 +10868,7 @@
         <v>3000</v>
       </c>
       <c r="E465" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10888,7 +10885,7 @@
         <v>4030</v>
       </c>
       <c r="E466" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -10905,7 +10902,7 @@
         <v>2701</v>
       </c>
       <c r="E467" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10973,7 +10970,7 @@
         <v>4415</v>
       </c>
       <c r="E471" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11092,7 +11089,7 @@
         <v>3733</v>
       </c>
       <c r="E478" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11109,7 +11106,7 @@
         <v>3861</v>
       </c>
       <c r="E479" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11211,7 +11208,7 @@
         <v>3891</v>
       </c>
       <c r="E485" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11279,7 +11276,7 @@
         <v>4939</v>
       </c>
       <c r="E489" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11296,7 +11293,7 @@
         <v>4948</v>
       </c>
       <c r="E490" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11330,7 +11327,7 @@
         <v>2184</v>
       </c>
       <c r="E492" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11449,7 +11446,7 @@
         <v>4939</v>
       </c>
       <c r="E499" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11483,7 +11480,7 @@
         <v>417478</v>
       </c>
       <c r="E501" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11551,7 +11548,7 @@
         <v>2413</v>
       </c>
       <c r="E505" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11568,7 +11565,7 @@
         <v>3126</v>
       </c>
       <c r="E506" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11602,7 +11599,7 @@
         <v>109997</v>
       </c>
       <c r="E508" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11653,7 +11650,7 @@
         <v>3221</v>
       </c>
       <c r="E511" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11704,7 +11701,7 @@
         <v>3306</v>
       </c>
       <c r="E514" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11721,7 +11718,7 @@
         <v>4727</v>
       </c>
       <c r="E515" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11789,7 +11786,7 @@
         <v>3067</v>
       </c>
       <c r="E519" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11823,7 +11820,7 @@
         <v>97378</v>
       </c>
       <c r="E521" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11840,7 +11837,7 @@
         <v>3548</v>
       </c>
       <c r="E522" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -11908,7 +11905,7 @@
         <v>108241</v>
       </c>
       <c r="E526" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -11976,7 +11973,7 @@
         <v>1694</v>
       </c>
       <c r="E530" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12010,7 +12007,7 @@
         <v>2829</v>
       </c>
       <c r="E532" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12044,7 +12041,7 @@
         <v>2128</v>
       </c>
       <c r="E534" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12061,7 +12058,7 @@
         <v>3155</v>
       </c>
       <c r="E535" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12078,7 +12075,7 @@
         <v>4671</v>
       </c>
       <c r="E536" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12146,7 +12143,7 @@
         <v>74824</v>
       </c>
       <c r="E540" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12214,7 +12211,7 @@
         <v>4440</v>
       </c>
       <c r="E544" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12265,7 +12262,7 @@
         <v>1517</v>
       </c>
       <c r="E547" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12333,7 +12330,7 @@
         <v>94539</v>
       </c>
       <c r="E551" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12350,7 +12347,7 @@
         <v>95616</v>
       </c>
       <c r="E552" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12418,7 +12415,7 @@
         <v>1619</v>
       </c>
       <c r="E556" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12469,7 +12466,7 @@
         <v>2024</v>
       </c>
       <c r="E559" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12486,7 +12483,7 @@
         <v>115970</v>
       </c>
       <c r="E560" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12520,7 +12517,7 @@
         <v>154641</v>
       </c>
       <c r="E562" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12537,7 +12534,7 @@
         <v>92116</v>
       </c>
       <c r="E563" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12588,7 +12585,7 @@
         <v>4794</v>
       </c>
       <c r="E566" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12673,7 +12670,7 @@
         <v>2960</v>
       </c>
       <c r="E571" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12690,7 +12687,7 @@
         <v>3977</v>
       </c>
       <c r="E572" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12707,7 +12704,7 @@
         <v>2559</v>
       </c>
       <c r="E573" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12758,7 +12755,7 @@
         <v>3651</v>
       </c>
       <c r="E576" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -12775,7 +12772,7 @@
         <v>65149</v>
       </c>
       <c r="E577" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12792,7 +12789,7 @@
         <v>1804</v>
       </c>
       <c r="E578" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -12809,7 +12806,7 @@
         <v>3340</v>
       </c>
       <c r="E579" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -12826,7 +12823,7 @@
         <v>4457</v>
       </c>
       <c r="E580" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -12911,7 +12908,7 @@
         <v>4261</v>
       </c>
       <c r="E585" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -12928,7 +12925,7 @@
         <v>2719</v>
       </c>
       <c r="E586" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -12962,7 +12959,7 @@
         <v>4141</v>
       </c>
       <c r="E588" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -12979,7 +12976,7 @@
         <v>4436</v>
       </c>
       <c r="E589" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -13166,7 +13163,7 @@
         <v>56845</v>
       </c>
       <c r="E600" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13268,7 +13265,7 @@
         <v>169838</v>
       </c>
       <c r="E606" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13319,7 +13316,7 @@
         <v>60003</v>
       </c>
       <c r="E609" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13336,7 +13333,7 @@
         <v>4305</v>
       </c>
       <c r="E610" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13421,7 +13418,7 @@
         <v>154293</v>
       </c>
       <c r="E615" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13506,7 +13503,7 @@
         <v>3658</v>
       </c>
       <c r="E620" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13540,7 +13537,7 @@
         <v>3572</v>
       </c>
       <c r="E622" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -13557,7 +13554,7 @@
         <v>3000</v>
       </c>
       <c r="E623" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -13625,7 +13622,7 @@
         <v>3603</v>
       </c>
       <c r="E627" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -13642,7 +13639,7 @@
         <v>1948</v>
       </c>
       <c r="E628" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13761,7 +13758,7 @@
         <v>4826</v>
       </c>
       <c r="E635" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13812,7 +13809,7 @@
         <v>341415</v>
       </c>
       <c r="E638" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -13829,7 +13826,7 @@
         <v>4061</v>
       </c>
       <c r="E639" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -13880,7 +13877,7 @@
         <v>2630</v>
       </c>
       <c r="E642" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -14067,7 +14064,7 @@
         <v>4521</v>
       </c>
       <c r="E653" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -14084,7 +14081,7 @@
         <v>2335</v>
       </c>
       <c r="E654" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -14118,7 +14115,7 @@
         <v>3507</v>
       </c>
       <c r="E656" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -14135,7 +14132,7 @@
         <v>4648</v>
       </c>
       <c r="E657" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -14186,7 +14183,7 @@
         <v>137877</v>
       </c>
       <c r="E660" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -14305,7 +14302,7 @@
         <v>3212</v>
       </c>
       <c r="E667" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -14322,7 +14319,7 @@
         <v>4385</v>
       </c>
       <c r="E668" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14356,7 +14353,7 @@
         <v>4074</v>
       </c>
       <c r="E670" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14373,7 +14370,7 @@
         <v>4693</v>
       </c>
       <c r="E671" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -14390,7 +14387,7 @@
         <v>4354</v>
       </c>
       <c r="E672" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -14407,7 +14404,7 @@
         <v>3806</v>
       </c>
       <c r="E673" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14458,7 +14455,7 @@
         <v>221705</v>
       </c>
       <c r="E676" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14560,7 +14557,7 @@
         <v>3909</v>
       </c>
       <c r="E682" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14594,7 +14591,7 @@
         <v>3985</v>
       </c>
       <c r="E684" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14611,7 +14608,7 @@
         <v>2494</v>
       </c>
       <c r="E685" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -14628,7 +14625,7 @@
         <v>4847</v>
       </c>
       <c r="E686" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -14679,7 +14676,7 @@
         <v>4334</v>
       </c>
       <c r="E689" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -14696,7 +14693,7 @@
         <v>3753</v>
       </c>
       <c r="E690" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -14730,7 +14727,7 @@
         <v>4843</v>
       </c>
       <c r="E692" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -14764,7 +14761,7 @@
         <v>3380</v>
       </c>
       <c r="E694" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -14815,7 +14812,7 @@
         <v>3364</v>
       </c>
       <c r="E697" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -14866,7 +14863,7 @@
         <v>3602</v>
       </c>
       <c r="E700" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -14883,7 +14880,7 @@
         <v>3861</v>
       </c>
       <c r="E701" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -14900,7 +14897,7 @@
         <v>3763</v>
       </c>
       <c r="E702" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -14968,7 +14965,7 @@
         <v>1756</v>
       </c>
       <c r="E706" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -14985,7 +14982,7 @@
         <v>3044</v>
       </c>
       <c r="E707" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -15036,7 +15033,7 @@
         <v>3770</v>
       </c>
       <c r="E710" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -15087,7 +15084,7 @@
         <v>3354</v>
       </c>
       <c r="E713" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -15104,7 +15101,7 @@
         <v>56625</v>
       </c>
       <c r="E714" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -15155,7 +15152,7 @@
         <v>4758</v>
       </c>
       <c r="E717" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -15189,7 +15186,7 @@
         <v>3860</v>
       </c>
       <c r="E719" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -15206,7 +15203,7 @@
         <v>4104</v>
       </c>
       <c r="E720" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -15325,7 +15322,7 @@
         <v>4949</v>
       </c>
       <c r="E727" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -15342,7 +15339,7 @@
         <v>2743</v>
       </c>
       <c r="E728" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -15393,7 +15390,7 @@
         <v>90897</v>
       </c>
       <c r="E731" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -15461,7 +15458,7 @@
         <v>4476</v>
       </c>
       <c r="E735" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -15580,7 +15577,7 @@
         <v>4291</v>
       </c>
       <c r="E742" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -15614,7 +15611,7 @@
         <v>4222</v>
       </c>
       <c r="E744" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -15631,7 +15628,7 @@
         <v>3851</v>
       </c>
       <c r="E745" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -15682,7 +15679,7 @@
         <v>2821</v>
       </c>
       <c r="E748" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -15733,7 +15730,7 @@
         <v>4563</v>
       </c>
       <c r="E751" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -15835,7 +15832,7 @@
         <v>3039</v>
       </c>
       <c r="E757" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="758" spans="1:5">
@@ -15903,7 +15900,7 @@
         <v>71915</v>
       </c>
       <c r="E761" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -15920,7 +15917,7 @@
         <v>1478</v>
       </c>
       <c r="E762" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -15937,7 +15934,7 @@
         <v>2259</v>
       </c>
       <c r="E763" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -16090,7 +16087,7 @@
         <v>2579</v>
       </c>
       <c r="E772" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -16124,7 +16121,7 @@
         <v>2001</v>
       </c>
       <c r="E774" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -16158,7 +16155,7 @@
         <v>1422</v>
       </c>
       <c r="E776" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -16175,7 +16172,7 @@
         <v>4056</v>
       </c>
       <c r="E777" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -16209,7 +16206,7 @@
         <v>3516</v>
       </c>
       <c r="E779" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -16260,7 +16257,7 @@
         <v>1857</v>
       </c>
       <c r="E782" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -16277,7 +16274,7 @@
         <v>4292</v>
       </c>
       <c r="E783" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -16294,7 +16291,7 @@
         <v>771</v>
       </c>
       <c r="E784" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -16362,7 +16359,7 @@
         <v>4836</v>
       </c>
       <c r="E788" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -16379,7 +16376,7 @@
         <v>1949</v>
       </c>
       <c r="E789" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -16413,7 +16410,7 @@
         <v>243950</v>
       </c>
       <c r="E791" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -16430,7 +16427,7 @@
         <v>2267</v>
       </c>
       <c r="E792" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -16464,7 +16461,7 @@
         <v>2621</v>
       </c>
       <c r="E794" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -16532,7 +16529,7 @@
         <v>3669</v>
       </c>
       <c r="E798" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -16566,7 +16563,7 @@
         <v>3093</v>
       </c>
       <c r="E800" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="801" spans="1:5">
@@ -16583,7 +16580,7 @@
         <v>4890</v>
       </c>
       <c r="E801" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="802" spans="1:5">
@@ -16600,7 +16597,7 @@
         <v>1869</v>
       </c>
       <c r="E802" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -16617,7 +16614,7 @@
         <v>4120</v>
       </c>
       <c r="E803" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -16668,7 +16665,7 @@
         <v>141269</v>
       </c>
       <c r="E806" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="807" spans="1:5">
@@ -16685,7 +16682,7 @@
         <v>91268</v>
       </c>
       <c r="E807" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -16753,7 +16750,7 @@
         <v>4117</v>
       </c>
       <c r="E811" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -16804,7 +16801,7 @@
         <v>80561</v>
       </c>
       <c r="E814" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="815" spans="1:5">
@@ -16838,7 +16835,7 @@
         <v>57127</v>
       </c>
       <c r="E816" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="817" spans="1:5">
@@ -16923,7 +16920,7 @@
         <v>117995</v>
       </c>
       <c r="E821" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="822" spans="1:5">
@@ -16974,7 +16971,7 @@
         <v>340277</v>
       </c>
       <c r="E824" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="825" spans="1:5">
@@ -16991,7 +16988,7 @@
         <v>706597</v>
       </c>
       <c r="E825" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -17008,7 +17005,7 @@
         <v>2582</v>
       </c>
       <c r="E826" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -17025,7 +17022,7 @@
         <v>85461</v>
       </c>
       <c r="E827" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="828" spans="1:5">
@@ -17042,7 +17039,7 @@
         <v>4265</v>
       </c>
       <c r="E828" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -17059,7 +17056,7 @@
         <v>3256</v>
       </c>
       <c r="E829" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="830" spans="1:5">
@@ -17127,7 +17124,7 @@
         <v>2143</v>
       </c>
       <c r="E833" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="834" spans="1:5">
@@ -17161,7 +17158,7 @@
         <v>137608</v>
       </c>
       <c r="E835" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -17280,7 +17277,7 @@
         <v>4090</v>
       </c>
       <c r="E842" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="843" spans="1:5">
@@ -17297,7 +17294,7 @@
         <v>4852</v>
       </c>
       <c r="E843" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="844" spans="1:5">
@@ -17314,7 +17311,7 @@
         <v>131849</v>
       </c>
       <c r="E844" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="845" spans="1:5">
@@ -17331,7 +17328,7 @@
         <v>79910</v>
       </c>
       <c r="E845" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="846" spans="1:5">
@@ -17348,7 +17345,7 @@
         <v>3570</v>
       </c>
       <c r="E846" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="847" spans="1:5">
@@ -17365,7 +17362,7 @@
         <v>3157</v>
       </c>
       <c r="E847" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="848" spans="1:5">
@@ -17484,7 +17481,7 @@
         <v>2543</v>
       </c>
       <c r="E854" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
